--- a/processed/CleanedFSAndIS/CleanedBSDictionary.xlsx
+++ b/processed/CleanedFSAndIS/CleanedBSDictionary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,856 +483,901 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>سرمایه‌گذاری در املاک</t>
+          <t>دارایی‌های ثابت مشهود</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>real_estate_investments</t>
+          <t>tangible_fixed_assets</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>112003</v>
+        <v>112005</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>دارایی‌های نامشهود</t>
+          <t>سرمایه‌گذاری در املاک</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>intangible_assets</t>
+          <t>real_estate_investments</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>112004</v>
+        <v>112003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>سرمایه‌گذاری‌های بلندمدت</t>
+          <t>دارایی‌های نامشهود</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>long_run_investments</t>
+          <t>intangible_assets</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>112002</v>
+        <v>112004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>سایر دارایی‌ها</t>
+          <t>سرمایه‌گذاری‌های بلندمدت</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>other_assets</t>
+          <t>long_run_investments</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>112006</v>
+        <v>112002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>جمع دارایی‌های غیرجاری</t>
+          <t>سایر دارایی‌ها</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>total_non_current_assets</t>
+          <t>other_assets</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>112999</v>
+        <v>112006</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>سفارشات و پیش‌پرداخت‌ها</t>
+          <t>جمع دارایی‌های غیرجاری</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>orders_and_prepayments</t>
+          <t>total_non_current_assets</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>111006</v>
+        <v>112999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>موجودی مواد و کالا</t>
+          <t>سفارشات و پیش‌پرداخت‌ها</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>inventories</t>
+          <t>orders_and_prepayments</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>111005</v>
+        <v>111006</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>دریافتنی‌های تجاری و سایر دریافتنی‌ها</t>
+          <t>موجودی مواد و کالا</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>commercial_and_other_receivables</t>
+          <t>inventories</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>111008</v>
+        <v>111005</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>موجودی نقد</t>
+          <t>دریافتنی‌های تجاری و سایر دریافتنی‌ها</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cash</t>
+          <t>commercial_and_other_receivables</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>111001</v>
+        <v>111008</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>جمع دارایی های جاری</t>
+          <t>موجودی نقد</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>total_current_assets</t>
+          <t>cash</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>111999</v>
+        <v>111001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>دارایی‌های نگهداری شده برای فروش</t>
+          <t>جمع دارایی های جاری</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Assets_held_for_sale</t>
+          <t>total_current_assets</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>111007</v>
+        <v>111999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>جمع دارایی‌ها</t>
+          <t>دارایی‌های نگهداری شده برای فروش</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>total_assets</t>
+          <t>Assets_held_for_sale</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>110999</v>
+        <v>111007</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>سرمايه</t>
+          <t>جمع دارایی‌ها</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>capital</t>
+          <t>total_assets</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>130001</v>
+        <v>110999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>افزایش سرمایه در جریان</t>
+          <t>سرمايه</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>capital_increase_in_process</t>
+          <t>capital</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>130002</v>
+        <v>130001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>صرف سهام</t>
+          <t>افزایش سرمایه در جریان</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sarf_saham</t>
+          <t>capital_increase_in_process</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>130003</v>
+        <v>130002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>صرف سهام خزانه</t>
+          <t>صرف سهام</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sarf_saham_khazane</t>
+          <t>sarf_saham</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>130012</v>
+        <v>130003</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>اندوخته قانونی</t>
+          <t>صرف سهام خزانه</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>legal_reserved</t>
+          <t>sarf_saham_khazane</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>130005</v>
+        <v>130012</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ساير اندوخته‌ها</t>
+          <t>اندوخته قانونی</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>other_reserves</t>
+          <t>legal_reserved</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>130006</v>
+        <v>130005</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>مازاد تجدیدارزيابی دارایی‌ها</t>
+          <t>ساير اندوخته‌ها</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>assets_revaluation_surplus</t>
+          <t>other_reserves</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>130008</v>
+        <v>130006</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>تفاوت تسعیر ارز عملیات خارجی</t>
+          <t>مازاد تجدیدارزيابی دارایی‌ها</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tafavot_taseer_arz</t>
+          <t>assets_revaluation_surplus</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>130009</v>
+        <v>130008</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>سود (زيان) انباشته</t>
+          <t>تفاوت تسعیر ارز عملیات خارجی</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>accumulated_(loss)_profit</t>
+          <t>tafavot_taseer_arz</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>130011</v>
+        <v>130009</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>سهام خزانه</t>
+          <t>سود (زيان) انباشته</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>saham_khazane</t>
+          <t>accumulated_(loss)_profit</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>130004</v>
+        <v>130011</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>جمع حقوق مالکانه</t>
+          <t>سهام خزانه</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>total_equity</t>
+          <t>saham_khazane</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>130999</v>
+        <v>130004</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>پرداختنی‌های بلندمدت</t>
+          <t>جمع حقوق مالکانه</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>long_term_payables</t>
+          <t>total_equity</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>122001</v>
+        <v>130999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>تسهیلات مالی بلندمدت</t>
+          <t>پرداختنی‌های بلندمدت</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>long_term_loans</t>
+          <t>long_term_payables</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>122003</v>
+        <v>122001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ذخیره مزایای پایان خدمت کارکنان</t>
+          <t>تسهیلات مالی بلندمدت</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pention_reserves</t>
+          <t>long_term_loans</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>122004</v>
+        <v>122003</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>جمع بدهی‌های غیرجاری</t>
+          <t>ذخیره مزایای پایان خدمت کارکنان</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>total_non_current_liabilities</t>
+          <t>pention_reserves</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>122999</v>
+        <v>122004</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>پرداختنی‌های تجاری و سایر پرداختنی‌ها</t>
+          <t>جمع بدهی‌های غیرجاری</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>commercial_payables_and_other_payables</t>
+          <t>total_non_current_liabilities</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>121009</v>
+        <v>122999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>مالیات پرداختنی</t>
+          <t>پرداختنی‌های تجاری و سایر پرداختنی‌ها</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>payable_taxes</t>
+          <t>commercial_payables_and_other_payables</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>121003</v>
+        <v>121009</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>سود سهام پرداختنی</t>
+          <t>مالیات پرداختنی</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>payable_dividends</t>
+          <t>payable_taxes</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>121004</v>
+        <v>121003</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>تسهیلات مالی</t>
+          <t>سود سهام پرداختنی</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>short_term_loans</t>
+          <t>payable_dividends</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>121005</v>
+        <v>121004</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ذخایر</t>
+          <t>تسهیلات مالی</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>reserves</t>
+          <t>short_term_loans</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>121006</v>
+        <v>121005</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>پیش‌دریافت‌ها</t>
+          <t>ذخایر</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pish_daryaftha</t>
+          <t>reserves</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>121010</v>
+        <v>121006</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>بدهی‌های ‌مرتبط ‌با دارایی‌های نگهداری‌‌شده برای ‌فروش</t>
+          <t>پیش‌دریافت‌ها</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>liabilities_related_assets_held_for_sale</t>
+          <t>pish_daryaftha</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>121008</v>
+        <v>121010</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>جمع بدهی‌های جاری</t>
+          <t>بدهی‌های ‌مرتبط ‌با دارایی‌های نگهداری‌‌شده برای ‌فروش</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>total_current_liabilities</t>
+          <t>liabilities_related_assets_held_for_sale</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>121999</v>
+        <v>121008</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>جمع بدهی‌ها</t>
+          <t>جمع بدهی‌های جاری</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>total_liabilities</t>
+          <t>total_current_liabilities</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>120999</v>
+        <v>121999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>جمع حقوق مالکانه و بدهی‌ها</t>
+          <t>جمع بدهی‌ها</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>total_liabilities_and_equity</t>
+          <t>total_liabilities</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>100999</v>
+        <v>120999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>مطالبات از شرکت‌های فرعی و وابسته</t>
+          <t>جمع حقوق مالکانه و بدهی‌ها</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>subsidiaries_claim</t>
+          <t>total_liabilities_and_equity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>111009</v>
+        <v>100999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>سایر حساب های دریافتنی</t>
+          <t>مطالبات از شرکت‌های فرعی و وابسته</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>other_receivables</t>
+          <t>subsidiaries_claim</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>111010</v>
+        <v>111009</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ذخیره مالیات عملکرد</t>
+          <t>سایر حساب های دریافتنی</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>tax_reserve</t>
+          <t>other_receivables</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>121013</v>
+        <v>111010</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>دریافتنی‌‌های تجاری</t>
+          <t>ذخیره مالیات عملکرد</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>commercial_receivables</t>
+          <t>tax_reserve</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>111003</v>
+        <v>121013</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>دریافتنی‌‌های غیرتجاری</t>
+          <t>دریافتنی‌‌های تجاری</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>non_commercial_receivables</t>
+          <t>commercial_receivables</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>111004</v>
+        <v>111003</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>زمین نگهداری شده برای ساخت املاک</t>
+          <t>دریافتنی‌‌های غیرتجاری</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>land_held_for_construction</t>
+          <t>non_commercial_receivables</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>112007</v>
+        <v>111004</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>پرداختنی‌های تجاری</t>
+          <t>زمین نگهداری شده برای ساخت املاک</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>commercial_payables</t>
+          <t>land_held_for_construction</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>121001</v>
+        <v>112007</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>پرداختنی‌های غیرتجاری</t>
+          <t>پرداختنی‌های تجاری</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>non_commercial_payables</t>
+          <t>commercial_payables</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>121002</v>
+        <v>121001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>پیش‌دریافت‌های جاری</t>
+          <t>پرداختنی‌های غیرتجاری</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>current_pish_daryaftha</t>
+          <t>non_commercial_payables</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>121007</v>
+        <v>121002</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>پیش‌دریافت‌های غیرجاری</t>
+          <t>پیش‌دریافت‌های جاری</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>non_current_pish_daryaftha</t>
+          <t>current_pish_daryaftha</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>122002</v>
+        <v>121007</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>مازاد تجدید ارزیابی دارایی‌های نگهداری شده برای فروش</t>
+          <t>پیش‌دریافت‌های غیرجاری</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>revaluation_surplus_assets_held_for_sale</t>
+          <t>non_current_pish_daryaftha</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>130007</v>
+        <v>122002</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>اندوخته تسعیر ارز دارایی‌ها و بدهی‌های شرکت‌های دولتی</t>
+          <t>مازاد تجدید ارزیابی دارایی‌های نگهداری شده برای فروش</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>andokhte_taseer_arz-sherkat_dolati</t>
+          <t>revaluation_surplus_assets_held_for_sale</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>130010</v>
+        <v>130007</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>مازاد تجدید ارزیابی دارایی‌های غیرجاری نگهداری شده برای فروش</t>
+          <t>اندوخته تسعیر ارز دارایی‌ها و بدهی‌های شرکت‌های دولتی</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>revaluation_surplus_non_current_assets_held_for_sale</t>
+          <t>andokhte_taseer_arz-sherkat_dolati</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>130013</v>
+        <v>130010</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>سفارشات</t>
+          <t>مازاد تجدید ارزیابی دارایی‌های غیرجاری نگهداری شده برای فروش</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>orders</t>
+          <t>revaluation_surplus_non_current_assets_held_for_sale</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>111011</v>
+        <v>130013</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>پیش پرداختها</t>
+          <t>سفارشات</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>prepayment</t>
+          <t>orders</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>111012</v>
+        <v>111011</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>دارایی های غیر جاری نگهداری شده برای فروش</t>
+          <t>پیش پرداختها</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>non_current_assets_held_for_sale</t>
+          <t>prepayment</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>111013</v>
+        <v>111012</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>بدهی به شرکتهای گروه و وابسته</t>
+          <t>دارایی های غیر جاری نگهداری شده برای فروش</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>subsidiaries_liabilities</t>
+          <t>non_current_assets_held_for_sale</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>121011</v>
+        <v>111013</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>سایر حسابها و اسناد پرداختنی</t>
+          <t>بدهی به شرکتهای گروه و وابسته</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>other_payables</t>
+          <t>subsidiaries_liabilities</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>121012</v>
+        <v>121011</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>بدهی های مرتبط با دارایی های غیر جاری نگهداری شده برای فروش</t>
+          <t>سایر حسابها و اسناد پرداختنی</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>liabilities_related_non_current_assets_held_for_sale</t>
+          <t>other_payables</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>121014</v>
+        <v>121012</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>بدهی های مرتبط با دارایی های غیر جاری نگهداری شده برای فروش</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>liabilities_related_non_current_assets_held_for_sale</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>121014</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>دریافتی بابت افزایش سرمایه</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>funds_received_for_capital_increase</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="C61" t="n">
         <v>130014</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>جمع دارایی های جاری پیش از</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>total_current_assets_befor</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>111998</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>جمع بدهی های جاری پیش از</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>total_current_liabilities_befor</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>121998</v>
       </c>
     </row>
   </sheetData>
